--- a/Excel-XLSX/UN-IRQ.xlsx
+++ b/Excel-XLSX/UN-IRQ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="857">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2qjN0n</t>
+    <t>9oEa2W</t>
   </si>
   <si>
     <t>1979</t>
@@ -2469,7 +2469,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t>1688</t>
+    <t>3026</t>
   </si>
   <si>
     <t>426</t>
@@ -2490,51 +2490,63 @@
     <t>431</t>
   </si>
   <si>
-    <t>6707</t>
+    <t>6855</t>
   </si>
   <si>
     <t>432</t>
   </si>
   <si>
+    <t>3579</t>
+  </si>
+  <si>
+    <t>5860</t>
+  </si>
+  <si>
     <t>433</t>
   </si>
   <si>
-    <t>3576</t>
-  </si>
-  <si>
-    <t>5321</t>
+    <t>1031475</t>
+  </si>
+  <si>
+    <t>55974</t>
+  </si>
+  <si>
+    <t>2145</t>
   </si>
   <si>
     <t>434</t>
   </si>
   <si>
-    <t>1098913</t>
-  </si>
-  <si>
-    <t>8844</t>
-  </si>
-  <si>
-    <t>2044</t>
-  </si>
-  <si>
     <t>435</t>
   </si>
   <si>
     <t>436</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>437</t>
   </si>
   <si>
-    <t>1080</t>
-  </si>
-  <si>
     <t>438</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
     <t>439</t>
   </si>
   <si>
+    <t>547</t>
+  </si>
+  <si>
     <t>440</t>
   </si>
   <si>
@@ -2550,25 +2562,25 @@
     <t>444</t>
   </si>
   <si>
-    <t>1001</t>
+    <t>1456</t>
   </si>
   <si>
     <t>445</t>
   </si>
   <si>
-    <t>286099</t>
-  </si>
-  <si>
-    <t>1290</t>
+    <t>303611</t>
+  </si>
+  <si>
+    <t>23896</t>
   </si>
   <si>
     <t>446</t>
   </si>
   <si>
-    <t>4319</t>
-  </si>
-  <si>
-    <t>3441</t>
+    <t>4213</t>
+  </si>
+  <si>
+    <t>3590</t>
   </si>
   <si>
     <t>447</t>
@@ -31908,7 +31920,7 @@
         <v>31</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O426" s="2" t="s">
         <v>817</v>
@@ -31926,7 +31938,7 @@
         <v>33</v>
       </c>
       <c r="T426" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U426" s="1" t="s">
         <v>34</v>
@@ -31976,10 +31988,10 @@
         <v>31</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O427" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="P427" s="2" t="s">
         <v>33</v>
@@ -32183,7 +32195,7 @@
         <v>42</v>
       </c>
       <c r="O430" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P430" s="2" t="s">
         <v>33</v>
@@ -32251,7 +32263,7 @@
         <v>33</v>
       </c>
       <c r="O431" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P431" s="2" t="s">
         <v>33</v>
@@ -32319,7 +32331,7 @@
         <v>824</v>
       </c>
       <c r="O432" s="2" t="s">
-        <v>455</v>
+        <v>656</v>
       </c>
       <c r="P432" s="2" t="s">
         <v>33</v>
@@ -32334,7 +32346,7 @@
         <v>33</v>
       </c>
       <c r="T432" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="U432" s="1" t="s">
         <v>34</v>
@@ -32360,16 +32372,16 @@
         <v>816</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>339</v>
+        <v>50</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>340</v>
+        <v>51</v>
       </c>
       <c r="I433" s="1" t="s">
-        <v>340</v>
+        <v>51</v>
       </c>
       <c r="J433" s="2" t="s">
         <v>29</v>
@@ -32384,10 +32396,10 @@
         <v>31</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>33</v>
+        <v>826</v>
       </c>
       <c r="O433" s="2" t="s">
-        <v>42</v>
+        <v>827</v>
       </c>
       <c r="P433" s="2" t="s">
         <v>33</v>
@@ -32402,7 +32414,7 @@
         <v>33</v>
       </c>
       <c r="T433" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="U433" s="1" t="s">
         <v>34</v>
@@ -32422,22 +32434,22 @@
         <v>22</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>816</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I434" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J434" s="2" t="s">
         <v>29</v>
@@ -32452,25 +32464,25 @@
         <v>31</v>
       </c>
       <c r="N434" s="2" t="s">
-        <v>827</v>
+        <v>33</v>
       </c>
       <c r="O434" s="2" t="s">
-        <v>828</v>
+        <v>33</v>
       </c>
       <c r="P434" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q434" s="2" t="s">
-        <v>33</v>
+        <v>829</v>
       </c>
       <c r="R434" s="2" t="s">
-        <v>33</v>
+        <v>830</v>
       </c>
       <c r="S434" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T434" s="2" t="s">
-        <v>48</v>
+        <v>831</v>
       </c>
       <c r="U434" s="1" t="s">
         <v>34</v>
@@ -32490,22 +32502,22 @@
         <v>22</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>816</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="I435" s="1" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="J435" s="2" t="s">
         <v>29</v>
@@ -32523,22 +32535,22 @@
         <v>33</v>
       </c>
       <c r="O435" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P435" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q435" s="2" t="s">
-        <v>830</v>
+        <v>33</v>
       </c>
       <c r="R435" s="2" t="s">
-        <v>831</v>
+        <v>33</v>
       </c>
       <c r="S435" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T435" s="2" t="s">
-        <v>832</v>
+        <v>157</v>
       </c>
       <c r="U435" s="1" t="s">
         <v>34</v>
@@ -32564,16 +32576,16 @@
         <v>816</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>320</v>
+        <v>544</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>321</v>
+        <v>545</v>
       </c>
       <c r="I436" s="1" t="s">
-        <v>321</v>
+        <v>545</v>
       </c>
       <c r="J436" s="2" t="s">
         <v>29</v>
@@ -32591,7 +32603,7 @@
         <v>33</v>
       </c>
       <c r="O436" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P436" s="2" t="s">
         <v>33</v>
@@ -32606,7 +32618,7 @@
         <v>33</v>
       </c>
       <c r="T436" s="2" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="U436" s="1" t="s">
         <v>34</v>
@@ -32632,16 +32644,16 @@
         <v>816</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="H437" s="1" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="I437" s="1" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="J437" s="2" t="s">
         <v>29</v>
@@ -32659,7 +32671,7 @@
         <v>33</v>
       </c>
       <c r="O437" s="2" t="s">
-        <v>58</v>
+        <v>835</v>
       </c>
       <c r="P437" s="2" t="s">
         <v>33</v>
@@ -32694,22 +32706,22 @@
         <v>22</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>816</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>475</v>
+        <v>323</v>
       </c>
       <c r="H438" s="1" t="s">
-        <v>476</v>
+        <v>324</v>
       </c>
       <c r="I438" s="1" t="s">
-        <v>477</v>
+        <v>325</v>
       </c>
       <c r="J438" s="2" t="s">
         <v>29</v>
@@ -32724,10 +32736,10 @@
         <v>31</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="O438" s="2" t="s">
-        <v>836</v>
+        <v>357</v>
       </c>
       <c r="P438" s="2" t="s">
         <v>33</v>
@@ -32742,7 +32754,7 @@
         <v>33</v>
       </c>
       <c r="T438" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="U438" s="1" t="s">
         <v>34</v>
@@ -32768,16 +32780,16 @@
         <v>816</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>323</v>
+        <v>838</v>
       </c>
       <c r="H439" s="1" t="s">
-        <v>324</v>
+        <v>839</v>
       </c>
       <c r="I439" s="1" t="s">
-        <v>325</v>
+        <v>840</v>
       </c>
       <c r="J439" s="2" t="s">
         <v>29</v>
@@ -32792,10 +32804,10 @@
         <v>31</v>
       </c>
       <c r="N439" s="2" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="O439" s="2" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="P439" s="2" t="s">
         <v>33</v>
@@ -32830,7 +32842,7 @@
         <v>22</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>816</v>
@@ -32860,10 +32872,10 @@
         <v>31</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O440" s="2" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="P440" s="2" t="s">
         <v>33</v>
@@ -32898,7 +32910,7 @@
         <v>22</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>816</v>
@@ -32966,7 +32978,7 @@
         <v>22</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>816</v>
@@ -32996,7 +33008,7 @@
         <v>31</v>
       </c>
       <c r="N442" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O442" s="2" t="s">
         <v>42</v>
@@ -33034,7 +33046,7 @@
         <v>22</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>816</v>
@@ -33067,7 +33079,7 @@
         <v>33</v>
       </c>
       <c r="O443" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="P443" s="2" t="s">
         <v>33</v>
@@ -33102,7 +33114,7 @@
         <v>22</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>816</v>
@@ -33170,7 +33182,7 @@
         <v>22</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>816</v>
@@ -33200,10 +33212,10 @@
         <v>31</v>
       </c>
       <c r="N445" s="2" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="O445" s="2" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="P445" s="2" t="s">
         <v>33</v>
@@ -33218,7 +33230,7 @@
         <v>33</v>
       </c>
       <c r="T445" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="U445" s="1" t="s">
         <v>34</v>
@@ -33238,7 +33250,7 @@
         <v>22</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>816</v>
@@ -33268,13 +33280,13 @@
         <v>31</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="O446" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P446" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="Q446" s="2" t="s">
         <v>33</v>
@@ -33306,7 +33318,7 @@
         <v>22</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>816</v>
@@ -33336,10 +33348,10 @@
         <v>31</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="O447" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="P447" s="2" t="s">
         <v>33</v>
@@ -33354,7 +33366,7 @@
         <v>33</v>
       </c>
       <c r="T447" s="2" t="s">
-        <v>693</v>
+        <v>795</v>
       </c>
       <c r="U447" s="1" t="s">
         <v>34</v>
@@ -33374,7 +33386,7 @@
         <v>22</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>816</v>
@@ -33442,7 +33454,7 @@
         <v>22</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>816</v>
@@ -33475,7 +33487,7 @@
         <v>33</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>138</v>
+        <v>496</v>
       </c>
       <c r="P449" s="2" t="s">
         <v>33</v>
